--- a/defaults/merge_bornpowerindex.xlsx
+++ b/defaults/merge_bornpowerindex.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="873" uniqueCount="680">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="874" uniqueCount="682">
   <si>
     <t xml:space="preserve">Index</t>
   </si>
@@ -1417,7 +1417,7 @@
     <t xml:space="preserve">RMU</t>
   </si>
   <si>
-    <t xml:space="preserve">ROBERT MORRIS – PA</t>
+    <t xml:space="preserve">ROBERT MORRIS - PA</t>
   </si>
   <si>
     <t xml:space="preserve">Rutgers Scarlet Knights</t>
@@ -1435,6 +1435,9 @@
     <t xml:space="preserve">SAC</t>
   </si>
   <si>
+    <t xml:space="preserve"> CAL-SACRAMENTO</t>
+  </si>
+  <si>
     <t xml:space="preserve">Sacred Heart Pioneers</t>
   </si>
   <si>
@@ -1580,6 +1583,9 @@
   </si>
   <si>
     <t xml:space="preserve">SUU</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SOUTHERN UTAH</t>
   </si>
   <si>
     <t xml:space="preserve">St. Francis (PA) Red Flash</t>
@@ -2176,23 +2182,6 @@
     <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
     <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
-  <dxfs count="2">
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF000000"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-  </dxfs>
 </styleSheet>
 </file>
 
@@ -2378,16 +2367,17 @@
   </sheetPr>
   <dimension ref="A1:E230"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A212" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D32" activeCellId="0" sqref="D32"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A145" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E154" activeCellId="0" sqref="E154"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6171875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="false" hidden="true" outlineLevel="0" max="1" min="1" style="1" width="8.62"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="29.62"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="31.01"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="41.76"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="39.24"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="2.03"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="26.32"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="21.89"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4996,7 +4986,7 @@
         <v>12</v>
       </c>
       <c r="E156" s="3" t="s">
-        <v>279</v>
+        <v>471</v>
       </c>
     </row>
     <row r="157" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5004,16 +4994,16 @@
         <v>195</v>
       </c>
       <c r="B157" s="1" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="C157" s="1" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="D157" s="1" t="s">
         <v>12</v>
       </c>
       <c r="E157" s="3" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
     </row>
     <row r="158" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5021,16 +5011,16 @@
         <v>5</v>
       </c>
       <c r="B158" s="1" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="C158" s="1" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="D158" s="1" t="s">
         <v>86</v>
       </c>
       <c r="E158" s="3" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
     </row>
     <row r="159" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5038,16 +5028,16 @@
         <v>117</v>
       </c>
       <c r="B159" s="1" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="C159" s="1" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="D159" s="1" t="s">
         <v>12</v>
       </c>
       <c r="E159" s="3" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
     </row>
     <row r="160" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5055,13 +5045,13 @@
         <v>38</v>
       </c>
       <c r="B160" s="1" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="C160" s="1" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="D160" s="1" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="E160" s="3"/>
     </row>
@@ -5070,16 +5060,16 @@
         <v>1</v>
       </c>
       <c r="B161" s="1" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="C161" s="1" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="D161" s="1" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="E161" s="3" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
     </row>
     <row r="162" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5087,16 +5077,16 @@
         <v>107</v>
       </c>
       <c r="B162" s="1" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="C162" s="1" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="D162" s="1" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="E162" s="3" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
     </row>
     <row r="163" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5104,16 +5094,16 @@
         <v>176</v>
       </c>
       <c r="B163" s="1" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="C163" s="1" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="D163" s="1" t="s">
         <v>12</v>
       </c>
       <c r="E163" s="3" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
     </row>
     <row r="164" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5121,13 +5111,13 @@
         <v>180</v>
       </c>
       <c r="B164" s="1" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="C164" s="1" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="D164" s="1" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="E164" s="3"/>
     </row>
@@ -5136,13 +5126,13 @@
         <v>36</v>
       </c>
       <c r="B165" s="1" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="C165" s="1" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="D165" s="1" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="E165" s="3" t="s">
         <v>12</v>
@@ -5153,16 +5143,16 @@
         <v>224</v>
       </c>
       <c r="B166" s="1" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="C166" s="1" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="D166" s="1" t="s">
         <v>356</v>
       </c>
       <c r="E166" s="3" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
     </row>
     <row r="167" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5170,16 +5160,16 @@
         <v>67</v>
       </c>
       <c r="B167" s="1" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="C167" s="1" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="D167" s="1" t="s">
         <v>12</v>
       </c>
       <c r="E167" s="3" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
     </row>
     <row r="168" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5187,13 +5177,13 @@
         <v>85</v>
       </c>
       <c r="B168" s="1" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="C168" s="1" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="D168" s="1" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="E168" s="3"/>
     </row>
@@ -5202,16 +5192,16 @@
         <v>159</v>
       </c>
       <c r="B169" s="1" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="C169" s="1" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="D169" s="1" t="s">
         <v>12</v>
       </c>
       <c r="E169" s="3" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
     </row>
     <row r="170" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5219,16 +5209,16 @@
         <v>98</v>
       </c>
       <c r="B170" s="1" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="C170" s="1" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="D170" s="1" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="E170" s="3" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
     </row>
     <row r="171" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5236,16 +5226,16 @@
         <v>97</v>
       </c>
       <c r="B171" s="1" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="C171" s="1" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="D171" s="1" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="E171" s="3" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
     </row>
     <row r="172" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5253,31 +5243,33 @@
         <v>135</v>
       </c>
       <c r="B172" s="1" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="C172" s="1" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="D172" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E172" s="3"/>
+      <c r="E172" s="3" t="s">
+        <v>521</v>
+      </c>
     </row>
     <row r="173" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A173" s="1" t="n">
         <v>80</v>
       </c>
       <c r="B173" s="1" t="s">
-        <v>520</v>
+        <v>522</v>
       </c>
       <c r="C173" s="1" t="s">
-        <v>521</v>
+        <v>523</v>
       </c>
       <c r="D173" s="1" t="s">
         <v>12</v>
       </c>
       <c r="E173" s="3" t="s">
-        <v>522</v>
+        <v>524</v>
       </c>
     </row>
     <row r="174" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5285,13 +5277,13 @@
         <v>88</v>
       </c>
       <c r="B174" s="1" t="s">
-        <v>523</v>
+        <v>525</v>
       </c>
       <c r="C174" s="1" t="s">
-        <v>524</v>
+        <v>526</v>
       </c>
       <c r="D174" s="1" t="s">
-        <v>525</v>
+        <v>527</v>
       </c>
       <c r="E174" s="3"/>
     </row>
@@ -5300,16 +5292,16 @@
         <v>100</v>
       </c>
       <c r="B175" s="1" t="s">
-        <v>526</v>
+        <v>528</v>
       </c>
       <c r="C175" s="1" t="s">
-        <v>527</v>
+        <v>529</v>
       </c>
       <c r="D175" s="1" t="s">
         <v>12</v>
       </c>
       <c r="E175" s="3" t="s">
-        <v>528</v>
+        <v>530</v>
       </c>
     </row>
     <row r="176" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5317,16 +5309,16 @@
         <v>64</v>
       </c>
       <c r="B176" s="1" t="s">
-        <v>529</v>
+        <v>531</v>
       </c>
       <c r="C176" s="1" t="s">
-        <v>530</v>
+        <v>532</v>
       </c>
       <c r="D176" s="1" t="s">
         <v>12</v>
       </c>
       <c r="E176" s="3" t="s">
-        <v>531</v>
+        <v>533</v>
       </c>
     </row>
     <row r="177" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5334,13 +5326,13 @@
         <v>13</v>
       </c>
       <c r="B177" s="1" t="s">
-        <v>532</v>
+        <v>534</v>
       </c>
       <c r="C177" s="1" t="s">
-        <v>533</v>
+        <v>535</v>
       </c>
       <c r="D177" s="1" t="s">
-        <v>534</v>
+        <v>536</v>
       </c>
       <c r="E177" s="3"/>
     </row>
@@ -5349,16 +5341,16 @@
         <v>226</v>
       </c>
       <c r="B178" s="1" t="s">
-        <v>535</v>
+        <v>537</v>
       </c>
       <c r="C178" s="1" t="s">
-        <v>536</v>
+        <v>538</v>
       </c>
       <c r="D178" s="1" t="s">
         <v>12</v>
       </c>
       <c r="E178" s="3" t="s">
-        <v>537</v>
+        <v>539</v>
       </c>
     </row>
     <row r="179" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5366,10 +5358,10 @@
         <v>196</v>
       </c>
       <c r="B179" s="1" t="s">
-        <v>538</v>
+        <v>540</v>
       </c>
       <c r="C179" s="1" t="s">
-        <v>539</v>
+        <v>541</v>
       </c>
       <c r="D179" s="1" t="s">
         <v>12</v>
@@ -5383,13 +5375,13 @@
         <v>194</v>
       </c>
       <c r="B180" s="1" t="s">
-        <v>540</v>
+        <v>542</v>
       </c>
       <c r="C180" s="1" t="s">
-        <v>541</v>
+        <v>543</v>
       </c>
       <c r="D180" s="1" t="s">
-        <v>542</v>
+        <v>544</v>
       </c>
       <c r="E180" s="3"/>
     </row>
@@ -5398,16 +5390,16 @@
         <v>20</v>
       </c>
       <c r="B181" s="1" t="s">
-        <v>543</v>
+        <v>545</v>
       </c>
       <c r="C181" s="1" t="s">
-        <v>544</v>
+        <v>546</v>
       </c>
       <c r="D181" s="1" t="s">
         <v>12</v>
       </c>
       <c r="E181" s="3" t="s">
-        <v>545</v>
+        <v>547</v>
       </c>
     </row>
     <row r="182" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5415,16 +5407,16 @@
         <v>61</v>
       </c>
       <c r="B182" s="1" t="s">
-        <v>546</v>
+        <v>548</v>
       </c>
       <c r="C182" s="1" t="s">
-        <v>547</v>
+        <v>549</v>
       </c>
       <c r="D182" s="1" t="s">
         <v>12</v>
       </c>
       <c r="E182" s="3" t="s">
-        <v>548</v>
+        <v>550</v>
       </c>
     </row>
     <row r="183" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5432,13 +5424,13 @@
         <v>35</v>
       </c>
       <c r="B183" s="1" t="s">
-        <v>549</v>
+        <v>551</v>
       </c>
       <c r="C183" s="1" t="s">
-        <v>550</v>
+        <v>552</v>
       </c>
       <c r="D183" s="1" t="s">
-        <v>551</v>
+        <v>553</v>
       </c>
       <c r="E183" s="3"/>
     </row>
@@ -5447,13 +5439,13 @@
         <v>87</v>
       </c>
       <c r="B184" s="1" t="s">
-        <v>552</v>
+        <v>554</v>
       </c>
       <c r="C184" s="1" t="s">
-        <v>553</v>
+        <v>555</v>
       </c>
       <c r="D184" s="1" t="s">
-        <v>554</v>
+        <v>556</v>
       </c>
       <c r="E184" s="3" t="s">
         <v>12</v>
@@ -5464,16 +5456,16 @@
         <v>129</v>
       </c>
       <c r="B185" s="1" t="s">
-        <v>555</v>
+        <v>557</v>
       </c>
       <c r="C185" s="1" t="s">
+        <v>558</v>
+      </c>
+      <c r="D185" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E185" s="3" t="s">
         <v>556</v>
-      </c>
-      <c r="D185" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E185" s="3" t="s">
-        <v>279</v>
       </c>
     </row>
     <row r="186" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5481,13 +5473,13 @@
         <v>174</v>
       </c>
       <c r="B186" s="1" t="s">
-        <v>557</v>
+        <v>559</v>
       </c>
       <c r="C186" s="1" t="s">
-        <v>558</v>
+        <v>560</v>
       </c>
       <c r="D186" s="1" t="s">
-        <v>559</v>
+        <v>561</v>
       </c>
       <c r="E186" s="3"/>
     </row>
@@ -5496,16 +5488,16 @@
         <v>23</v>
       </c>
       <c r="B187" s="1" t="s">
-        <v>560</v>
+        <v>562</v>
       </c>
       <c r="C187" s="1" t="s">
-        <v>561</v>
+        <v>563</v>
       </c>
       <c r="D187" s="1" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="E187" s="3" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
     </row>
     <row r="188" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5513,16 +5505,16 @@
         <v>140</v>
       </c>
       <c r="B188" s="1" t="s">
-        <v>563</v>
+        <v>565</v>
       </c>
       <c r="C188" s="1" t="s">
-        <v>564</v>
+        <v>566</v>
       </c>
       <c r="D188" s="1" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
       <c r="E188" s="3" t="s">
-        <v>566</v>
+        <v>568</v>
       </c>
     </row>
     <row r="189" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5530,16 +5522,16 @@
         <v>188</v>
       </c>
       <c r="B189" s="1" t="s">
-        <v>567</v>
+        <v>569</v>
       </c>
       <c r="C189" s="1" t="s">
-        <v>568</v>
+        <v>570</v>
       </c>
       <c r="D189" s="1" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
       <c r="E189" s="3" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="190" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5547,16 +5539,16 @@
         <v>123</v>
       </c>
       <c r="B190" s="1" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
       <c r="C190" s="1" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
       <c r="D190" s="1" t="s">
         <v>12</v>
       </c>
       <c r="E190" s="3" t="s">
-        <v>572</v>
+        <v>574</v>
       </c>
     </row>
     <row r="191" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5564,13 +5556,13 @@
         <v>155</v>
       </c>
       <c r="B191" s="1" t="s">
-        <v>573</v>
+        <v>575</v>
       </c>
       <c r="C191" s="1" t="s">
-        <v>574</v>
+        <v>576</v>
       </c>
       <c r="D191" s="1" t="s">
-        <v>575</v>
+        <v>577</v>
       </c>
       <c r="E191" s="3"/>
     </row>
@@ -5579,16 +5571,16 @@
         <v>201</v>
       </c>
       <c r="B192" s="1" t="s">
-        <v>576</v>
+        <v>578</v>
       </c>
       <c r="C192" s="1" t="s">
-        <v>577</v>
+        <v>579</v>
       </c>
       <c r="D192" s="1" t="s">
         <v>12</v>
       </c>
       <c r="E192" s="3" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
     </row>
     <row r="193" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5596,10 +5588,10 @@
         <v>30</v>
       </c>
       <c r="B193" s="1" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
       <c r="C193" s="1" t="s">
-        <v>580</v>
+        <v>582</v>
       </c>
       <c r="D193" s="1" t="s">
         <v>12</v>
@@ -5613,13 +5605,13 @@
         <v>185</v>
       </c>
       <c r="B194" s="1" t="s">
-        <v>581</v>
+        <v>583</v>
       </c>
       <c r="C194" s="1" t="s">
-        <v>582</v>
+        <v>584</v>
       </c>
       <c r="D194" s="1" t="s">
-        <v>583</v>
+        <v>585</v>
       </c>
       <c r="E194" s="3"/>
     </row>
@@ -5628,13 +5620,13 @@
         <v>120</v>
       </c>
       <c r="B195" s="1" t="s">
-        <v>584</v>
+        <v>586</v>
       </c>
       <c r="C195" s="1" t="s">
-        <v>585</v>
+        <v>587</v>
       </c>
       <c r="D195" s="1" t="s">
-        <v>586</v>
+        <v>588</v>
       </c>
       <c r="E195" s="3" t="s">
         <v>12</v>
@@ -5645,10 +5637,10 @@
         <v>127</v>
       </c>
       <c r="B196" s="1" t="s">
-        <v>587</v>
+        <v>589</v>
       </c>
       <c r="C196" s="1" t="s">
-        <v>588</v>
+        <v>590</v>
       </c>
       <c r="D196" s="1" t="s">
         <v>12</v>
@@ -5662,16 +5654,16 @@
         <v>148</v>
       </c>
       <c r="B197" s="1" t="s">
-        <v>589</v>
+        <v>591</v>
       </c>
       <c r="C197" s="1" t="s">
-        <v>590</v>
+        <v>592</v>
       </c>
       <c r="D197" s="1" t="s">
         <v>12</v>
       </c>
       <c r="E197" s="3" t="s">
-        <v>591</v>
+        <v>593</v>
       </c>
     </row>
     <row r="198" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5679,10 +5671,10 @@
         <v>60</v>
       </c>
       <c r="B198" s="1" t="s">
-        <v>592</v>
+        <v>594</v>
       </c>
       <c r="C198" s="1" t="s">
-        <v>593</v>
+        <v>595</v>
       </c>
       <c r="D198" s="1" t="s">
         <v>12</v>
@@ -5696,10 +5688,10 @@
         <v>93</v>
       </c>
       <c r="B199" s="1" t="s">
-        <v>594</v>
+        <v>596</v>
       </c>
       <c r="C199" s="1" t="s">
-        <v>595</v>
+        <v>597</v>
       </c>
       <c r="D199" s="1" t="s">
         <v>12</v>
@@ -5713,10 +5705,10 @@
         <v>141</v>
       </c>
       <c r="B200" s="1" t="s">
-        <v>596</v>
+        <v>598</v>
       </c>
       <c r="C200" s="1" t="s">
-        <v>597</v>
+        <v>599</v>
       </c>
       <c r="D200" s="1" t="s">
         <v>12</v>
@@ -5730,13 +5722,13 @@
         <v>51</v>
       </c>
       <c r="B201" s="1" t="s">
-        <v>598</v>
+        <v>600</v>
       </c>
       <c r="C201" s="1" t="s">
-        <v>599</v>
+        <v>601</v>
       </c>
       <c r="D201" s="1" t="s">
-        <v>600</v>
+        <v>602</v>
       </c>
       <c r="E201" s="3"/>
     </row>
@@ -5745,10 +5737,10 @@
         <v>181</v>
       </c>
       <c r="B202" s="1" t="s">
-        <v>601</v>
+        <v>603</v>
       </c>
       <c r="C202" s="1" t="s">
-        <v>602</v>
+        <v>604</v>
       </c>
       <c r="D202" s="1" t="s">
         <v>12</v>
@@ -5762,16 +5754,16 @@
         <v>137</v>
       </c>
       <c r="B203" s="1" t="s">
-        <v>603</v>
+        <v>605</v>
       </c>
       <c r="C203" s="1" t="s">
-        <v>604</v>
+        <v>606</v>
       </c>
       <c r="D203" s="1" t="s">
         <v>12</v>
       </c>
       <c r="E203" s="3" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
     </row>
     <row r="204" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5779,16 +5771,16 @@
         <v>89</v>
       </c>
       <c r="B204" s="1" t="s">
-        <v>605</v>
+        <v>607</v>
       </c>
       <c r="C204" s="1" t="s">
-        <v>606</v>
+        <v>608</v>
       </c>
       <c r="D204" s="1" t="s">
         <v>12</v>
       </c>
       <c r="E204" s="3" t="s">
-        <v>607</v>
+        <v>609</v>
       </c>
     </row>
     <row r="205" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5796,13 +5788,13 @@
         <v>198</v>
       </c>
       <c r="B205" s="1" t="s">
-        <v>608</v>
+        <v>610</v>
       </c>
       <c r="C205" s="1" t="s">
-        <v>609</v>
+        <v>611</v>
       </c>
       <c r="D205" s="1" t="s">
-        <v>610</v>
+        <v>612</v>
       </c>
       <c r="E205" s="3"/>
     </row>
@@ -5811,16 +5803,16 @@
         <v>33</v>
       </c>
       <c r="B206" s="1" t="s">
-        <v>611</v>
+        <v>613</v>
       </c>
       <c r="C206" s="1" t="s">
-        <v>612</v>
+        <v>614</v>
       </c>
       <c r="D206" s="1" t="s">
         <v>12</v>
       </c>
       <c r="E206" s="3" t="s">
-        <v>613</v>
+        <v>615</v>
       </c>
     </row>
     <row r="207" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5828,13 +5820,13 @@
         <v>182</v>
       </c>
       <c r="B207" s="1" t="s">
-        <v>614</v>
+        <v>616</v>
       </c>
       <c r="C207" s="1" t="s">
-        <v>615</v>
+        <v>617</v>
       </c>
       <c r="D207" s="1" t="s">
-        <v>615</v>
+        <v>617</v>
       </c>
       <c r="E207" s="3"/>
     </row>
@@ -5843,16 +5835,16 @@
         <v>125</v>
       </c>
       <c r="B208" s="1" t="s">
-        <v>616</v>
+        <v>618</v>
       </c>
       <c r="C208" s="1" t="s">
-        <v>617</v>
+        <v>619</v>
       </c>
       <c r="D208" s="1" t="s">
         <v>12</v>
       </c>
       <c r="E208" s="3" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
     </row>
     <row r="209" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5860,10 +5852,10 @@
         <v>223</v>
       </c>
       <c r="B209" s="1" t="s">
-        <v>618</v>
+        <v>620</v>
       </c>
       <c r="C209" s="1" t="s">
-        <v>619</v>
+        <v>621</v>
       </c>
       <c r="D209" s="1" t="s">
         <v>12</v>
@@ -5877,13 +5869,13 @@
         <v>142</v>
       </c>
       <c r="B210" s="1" t="s">
-        <v>620</v>
+        <v>622</v>
       </c>
       <c r="C210" s="1" t="s">
-        <v>621</v>
+        <v>623</v>
       </c>
       <c r="D210" s="1" t="s">
-        <v>622</v>
+        <v>624</v>
       </c>
       <c r="E210" s="3"/>
     </row>
@@ -5892,16 +5884,16 @@
         <v>105</v>
       </c>
       <c r="B211" s="1" t="s">
-        <v>623</v>
+        <v>625</v>
       </c>
       <c r="C211" s="1" t="s">
-        <v>624</v>
+        <v>626</v>
       </c>
       <c r="D211" s="1" t="s">
         <v>12</v>
       </c>
       <c r="E211" s="3" t="s">
-        <v>625</v>
+        <v>627</v>
       </c>
     </row>
     <row r="212" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5909,13 +5901,13 @@
         <v>17</v>
       </c>
       <c r="B212" s="1" t="s">
-        <v>626</v>
+        <v>628</v>
       </c>
       <c r="C212" s="1" t="s">
-        <v>627</v>
+        <v>629</v>
       </c>
       <c r="D212" s="1" t="s">
-        <v>628</v>
+        <v>630</v>
       </c>
       <c r="E212" s="3"/>
     </row>
@@ -5924,13 +5916,13 @@
         <v>82</v>
       </c>
       <c r="B213" s="1" t="s">
-        <v>629</v>
+        <v>631</v>
       </c>
       <c r="C213" s="1" t="s">
-        <v>630</v>
+        <v>632</v>
       </c>
       <c r="D213" s="1" t="s">
-        <v>631</v>
+        <v>633</v>
       </c>
       <c r="E213" s="3" t="s">
         <v>12</v>
@@ -5941,16 +5933,16 @@
         <v>49</v>
       </c>
       <c r="B214" s="1" t="s">
-        <v>632</v>
+        <v>634</v>
       </c>
       <c r="C214" s="1" t="s">
-        <v>633</v>
+        <v>635</v>
       </c>
       <c r="D214" s="1" t="s">
         <v>12</v>
       </c>
       <c r="E214" s="3" t="s">
-        <v>634</v>
+        <v>636</v>
       </c>
     </row>
     <row r="215" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5958,16 +5950,16 @@
         <v>165</v>
       </c>
       <c r="B215" s="1" t="s">
-        <v>635</v>
+        <v>637</v>
       </c>
       <c r="C215" s="1" t="s">
-        <v>636</v>
+        <v>638</v>
       </c>
       <c r="D215" s="1" t="s">
         <v>12</v>
       </c>
       <c r="E215" s="3" t="s">
-        <v>637</v>
+        <v>639</v>
       </c>
     </row>
     <row r="216" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5975,13 +5967,13 @@
         <v>173</v>
       </c>
       <c r="B216" s="1" t="s">
-        <v>638</v>
+        <v>640</v>
       </c>
       <c r="C216" s="1" t="s">
-        <v>639</v>
+        <v>641</v>
       </c>
       <c r="D216" s="1" t="s">
-        <v>640</v>
+        <v>642</v>
       </c>
       <c r="E216" s="3"/>
     </row>
@@ -5990,13 +5982,13 @@
         <v>76</v>
       </c>
       <c r="B217" s="1" t="s">
-        <v>641</v>
+        <v>643</v>
       </c>
       <c r="C217" s="1" t="s">
-        <v>642</v>
+        <v>644</v>
       </c>
       <c r="D217" s="1" t="s">
-        <v>643</v>
+        <v>645</v>
       </c>
       <c r="E217" s="3"/>
     </row>
@@ -6005,13 +5997,13 @@
         <v>202</v>
       </c>
       <c r="B218" s="1" t="s">
-        <v>644</v>
+        <v>646</v>
       </c>
       <c r="C218" s="1" t="s">
-        <v>645</v>
+        <v>647</v>
       </c>
       <c r="D218" s="1" t="s">
-        <v>646</v>
+        <v>648</v>
       </c>
       <c r="E218" s="3" t="s">
         <v>12</v>
@@ -6022,16 +6014,16 @@
         <v>43</v>
       </c>
       <c r="B219" s="1" t="s">
-        <v>647</v>
+        <v>649</v>
       </c>
       <c r="C219" s="1" t="s">
-        <v>648</v>
+        <v>650</v>
       </c>
       <c r="D219" s="1" t="s">
         <v>12</v>
       </c>
       <c r="E219" s="3" t="s">
-        <v>649</v>
+        <v>651</v>
       </c>
     </row>
     <row r="220" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6039,13 +6031,13 @@
         <v>69</v>
       </c>
       <c r="B220" s="1" t="s">
-        <v>650</v>
+        <v>652</v>
       </c>
       <c r="C220" s="1" t="s">
-        <v>651</v>
+        <v>653</v>
       </c>
       <c r="D220" s="1" t="s">
-        <v>652</v>
+        <v>654</v>
       </c>
       <c r="E220" s="3"/>
     </row>
@@ -6054,16 +6046,16 @@
         <v>102</v>
       </c>
       <c r="B221" s="1" t="s">
-        <v>653</v>
+        <v>655</v>
       </c>
       <c r="C221" s="1" t="s">
-        <v>654</v>
+        <v>656</v>
       </c>
       <c r="D221" s="1" t="s">
-        <v>566</v>
+        <v>568</v>
       </c>
       <c r="E221" s="3" t="s">
-        <v>655</v>
+        <v>657</v>
       </c>
     </row>
     <row r="222" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6071,16 +6063,16 @@
         <v>126</v>
       </c>
       <c r="B222" s="1" t="s">
-        <v>656</v>
+        <v>658</v>
       </c>
       <c r="C222" s="1" t="s">
-        <v>657</v>
+        <v>659</v>
       </c>
       <c r="D222" s="1" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="E222" s="3" t="s">
-        <v>658</v>
+        <v>660</v>
       </c>
     </row>
     <row r="223" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6088,13 +6080,13 @@
         <v>208</v>
       </c>
       <c r="B223" s="1" t="s">
-        <v>659</v>
+        <v>661</v>
       </c>
       <c r="C223" s="1" t="s">
-        <v>660</v>
+        <v>662</v>
       </c>
       <c r="D223" s="1" t="s">
-        <v>661</v>
+        <v>663</v>
       </c>
       <c r="E223" s="3"/>
     </row>
@@ -6103,13 +6095,13 @@
         <v>40</v>
       </c>
       <c r="B224" s="1" t="s">
-        <v>662</v>
+        <v>664</v>
       </c>
       <c r="C224" s="1" t="s">
-        <v>663</v>
+        <v>665</v>
       </c>
       <c r="D224" s="1" t="s">
-        <v>664</v>
+        <v>666</v>
       </c>
       <c r="E224" s="3"/>
     </row>
@@ -6118,16 +6110,16 @@
         <v>163</v>
       </c>
       <c r="B225" s="1" t="s">
-        <v>665</v>
+        <v>667</v>
       </c>
       <c r="C225" s="1" t="s">
-        <v>666</v>
+        <v>668</v>
       </c>
       <c r="D225" s="1" t="s">
         <v>12</v>
       </c>
       <c r="E225" s="3" t="s">
-        <v>667</v>
+        <v>669</v>
       </c>
     </row>
     <row r="226" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6135,13 +6127,13 @@
         <v>91</v>
       </c>
       <c r="B226" s="1" t="s">
-        <v>668</v>
+        <v>670</v>
       </c>
       <c r="C226" s="1" t="s">
-        <v>669</v>
+        <v>671</v>
       </c>
       <c r="D226" s="1" t="s">
-        <v>670</v>
+        <v>672</v>
       </c>
       <c r="E226" s="3"/>
     </row>
@@ -6150,16 +6142,16 @@
         <v>184</v>
       </c>
       <c r="B227" s="1" t="s">
-        <v>671</v>
+        <v>673</v>
       </c>
       <c r="C227" s="1" t="s">
-        <v>672</v>
+        <v>674</v>
       </c>
       <c r="D227" s="1" t="s">
         <v>12</v>
       </c>
       <c r="E227" s="3" t="s">
-        <v>673</v>
+        <v>675</v>
       </c>
     </row>
     <row r="228" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6167,13 +6159,13 @@
         <v>119</v>
       </c>
       <c r="B228" s="1" t="s">
-        <v>674</v>
+        <v>676</v>
       </c>
       <c r="C228" s="1" t="s">
-        <v>675</v>
+        <v>677</v>
       </c>
       <c r="D228" s="1" t="s">
-        <v>676</v>
+        <v>678</v>
       </c>
       <c r="E228" s="3"/>
     </row>
@@ -6182,16 +6174,16 @@
         <v>153</v>
       </c>
       <c r="B229" s="1" t="s">
-        <v>677</v>
+        <v>679</v>
       </c>
       <c r="C229" s="1" t="s">
-        <v>678</v>
+        <v>680</v>
       </c>
       <c r="D229" s="1" t="s">
         <v>12</v>
       </c>
       <c r="E229" s="3" t="s">
-        <v>679</v>
+        <v>681</v>
       </c>
     </row>
     <row r="230" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
